--- a/Tools/money transfer.xlsx
+++ b/Tools/money transfer.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="18915" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t xml:space="preserve">money transfer </t>
   </si>
@@ -67,14 +67,25 @@
   </si>
   <si>
     <t xml:space="preserve">total price </t>
+  </si>
+  <si>
+    <t>EU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,19 +113,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -188,6 +205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,21 +416,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,7 +441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -433,7 +455,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -447,7 +469,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -461,7 +483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -475,7 +497,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -489,7 +511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -503,7 +525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -519,7 +541,7 @@
         <v>1905000</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -535,7 +557,7 @@
         <v>2499000</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -551,7 +573,7 @@
         <v>4404000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -564,7 +586,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -583,24 +605,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>15000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>B4*B6+B5*B7</f>
+        <v>1650000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>F4*F6+F5*F7</f>
+        <v>1905000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B4*B8+B5*B9</f>
+        <v>1950000</v>
+      </c>
+      <c r="C12">
+        <f>B12*40/100</f>
+        <v>780000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F4*F8+F5*F9</f>
+        <v>2499000</v>
+      </c>
+      <c r="G12">
+        <f>F12*0.5</f>
+        <v>1249500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <f>B11+B12</f>
+        <v>3600000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f>F11+F12</f>
+        <v>4404000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f>40000*3</f>
+        <v>120000</v>
+      </c>
+      <c r="F15">
+        <f>30000*3</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>B13+B15</f>
+        <v>3720000</v>
+      </c>
+      <c r="F21">
+        <f>F13+F15</f>
+        <v>4494000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
